--- a/TCER1.xlsx
+++ b/TCER1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\catalogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EA9F5E-5ED5-4B25-BF5A-9999FE40084B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADE4B5F-EF7B-49D2-BD6B-54A8DDE05C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A456D0F-87B7-4C9F-B903-BAE1A843B062}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8A456D0F-87B7-4C9F-B903-BAE1A843B062}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventory" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>Test Case expected result (TCER)</t>
   </si>
@@ -102,6 +103,36 @@
   </si>
   <si>
     <t>findProductByCode(1)</t>
+  </si>
+  <si>
+    <t>InventoryService</t>
+  </si>
+  <si>
+    <t>InventoryDao</t>
+  </si>
+  <si>
+    <t>getInventoryByProductCode(abc)</t>
+  </si>
+  <si>
+    <t>getInventoryItemByProductCode(abc)</t>
+  </si>
+  <si>
+    <t>getInventoryItemByProductCode(1)</t>
+  </si>
+  <si>
+    <t>getInventoryByProductCode(1)</t>
+  </si>
+  <si>
+    <t>updateInventoryByProductCode(abc)</t>
+  </si>
+  <si>
+    <t>Inventory object</t>
+  </si>
+  <si>
+    <t>updated object</t>
+  </si>
+  <si>
+    <t>save(item1)</t>
   </si>
 </sst>
 </file>
@@ -177,12 +208,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C3A228-D8AD-4868-ABA1-78625BE12AE8}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,16 +547,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
@@ -534,99 +565,99 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="5"/>
@@ -635,66 +666,273 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8FDAD1-2D6D-4DF6-B3D3-1348403F37CF}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
